--- a/biology/Botanique/Lingot_du_Nord/Lingot_du_Nord.xlsx
+++ b/biology/Botanique/Lingot_du_Nord/Lingot_du_Nord.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le lingot du Nord est une dénomination de haricot français. Elle est enregistrée comme indication géographique protégée (IGP).
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La plaine de la Lys était un lieu de marécages, l'agriculture n'y apparait que tardivement, à savoir au XVIe siècle.
 C'est une région de polyculture et de petites fermes, qui est peu favorable à la mécanisation. La polyculture tourne autour de trois productions :
@@ -550,16 +564,18 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Aire de l'IGP
-Les communes du Nord
-Seize communes sont concernées dans le Nord : Bailleul, Le Doulieu, Estaires, La Gorgue, Haverskerque, Hazebrouck, Merris, Merville, Morbecque, Neuf-Berquin, Nieppe, Steenbecque, Steenwerck, Strazeele, Thiennes et Vieux-Berquin.
-Les communes du Pas-de-Calais
-Vingt-trois communes sont concernées dans le Pas-de-Calais : Busnes, Calonne-sur-la-Lys, La Couture, Festubert, Fleurbaix, Gonnehem, Guarbecque, Ham-en-Artois, Hinges, Isbergues, Laventie, Lestrem, Lillers, Locon, Lorgies, Mont-Bernanchon, Neuve-Chapelle, Richebourg, Robecq, Sailly-sur-la-Lys, Saint-Floris, Saint-Venant et Vieille-Chapelle.
-Climatologie
-Le territoire où se situe le vignoble est en position d'abri grâce au plateau de l'Artois. Ce dernier étant soumis à des vents humides en provenance l'océan Atlantique, la plaine bénéficie d'un effet de foehn. Ainsi, les précipitations annuelles moyennes sont de l'ordre de 700-800 mm contre 1 000 mm sur le plateau. Elles sont très faibles durant les mois d'août et de septembre.
-Du point de vue des températures, elles sont régulières et douces. L'été est marqué par une faible amplitude thermique qui se caractérise par une chaleur modérée et des nuits peu fraîches. L'arrière-saison quant à elle est ensoleillée.
-Malgré la faiblesse des précipitations durant l'été, l'hygrométrie est suffisante, puisque les sécheresses dans ce territoire restent des phénomènes exceptionnels.
-Géologie</t>
+          <t>Aire de l'IGP</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Les communes du Nord</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Seize communes sont concernées dans le Nord : Bailleul, Le Doulieu, Estaires, La Gorgue, Haverskerque, Hazebrouck, Merris, Merville, Morbecque, Neuf-Berquin, Nieppe, Steenbecque, Steenwerck, Strazeele, Thiennes et Vieux-Berquin.
+</t>
         </is>
       </c>
     </row>
@@ -584,12 +600,62 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>La culture</t>
+          <t>Situation géographique</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Les variétés cultivées</t>
+          <t>Aire de l'IGP</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Les communes du Pas-de-Calais</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vingt-trois communes sont concernées dans le Pas-de-Calais : Busnes, Calonne-sur-la-Lys, La Couture, Festubert, Fleurbaix, Gonnehem, Guarbecque, Ham-en-Artois, Hinges, Isbergues, Laventie, Lestrem, Lillers, Locon, Lorgies, Mont-Bernanchon, Neuve-Chapelle, Richebourg, Robecq, Sailly-sur-la-Lys, Saint-Floris, Saint-Venant et Vieille-Chapelle.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Lingot_du_Nord</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lingot_du_Nord</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Situation géographique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Climatologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le territoire où se situe le vignoble est en position d'abri grâce au plateau de l'Artois. Ce dernier étant soumis à des vents humides en provenance l'océan Atlantique, la plaine bénéficie d'un effet de foehn. Ainsi, les précipitations annuelles moyennes sont de l'ordre de 700-800 mm contre 1 000 mm sur le plateau. Elles sont très faibles durant les mois d'août et de septembre.
+Du point de vue des températures, elles sont régulières et douces. L'été est marqué par une faible amplitude thermique qui se caractérise par une chaleur modérée et des nuits peu fraîches. L'arrière-saison quant à elle est ensoleillée.
+Malgré la faiblesse des précipitations durant l'été, l'hygrométrie est suffisante, puisque les sécheresses dans ce territoire restent des phénomènes exceptionnels.
+</t>
         </is>
       </c>
     </row>
